--- a/reviews.xlsx
+++ b/reviews.xlsx
@@ -11,123 +11,99 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
-  <si>
-    <t>Very nice</t>
-  </si>
-  <si>
-    <t>Good quality shoes , value for money</t>
-  </si>
-  <si>
-    <t>Delivered product different and Showing product, not Actually product. I am not happy with this product.</t>
-  </si>
-  <si>
-    <t>Not bad but cost is high</t>
-  </si>
-  <si>
-    <t>Like</t>
-  </si>
-  <si>
-    <t>Good Quality ,Comfortable, Perfect</t>
-  </si>
-  <si>
-    <t>Needed cushioning comfort upto ankle level.</t>
-  </si>
-  <si>
-    <t>Good product</t>
-  </si>
-  <si>
-    <t>Ok</t>
-  </si>
-  <si>
-    <t>Used only for 6 months. It got teared.</t>
-  </si>
-  <si>
-    <t>Leather quality is below average</t>
-  </si>
-  <si>
-    <t>Photo of the product was looking very nice  but actual product not ok</t>
-  </si>
-  <si>
-    <t>Awesome shoes very good product</t>
-  </si>
-  <si>
-    <t>Immediately wrinkles coming, shoe bites for right feet from back heel, cheap quality foam used at heel part below insole. It get hurt to heel.</t>
-  </si>
-  <si>
-    <t>यह बहुत घटिया जूता है एक हफ्ते में ही फट गया 1 महीने में ही इसके सोल में होल गया, जो भी यह जूता लेगा वह पछतायेगा कृपया यह जूता आप लोग ना खरीदें।</t>
-  </si>
-  <si>
-    <t>The item is ok.</t>
-  </si>
-  <si>
-    <t>Upper Meterial is made by Leather but lower is Rubber which avarage quality. it may be damage early.</t>
-  </si>
-  <si>
-    <t>the shoes are of good quality and excellent value for money.. generally i wear size 8 since my feet size is slightly over 8.. but the shoe size (8) is slightly bigger in this case and is slightly loose for me. so while ordering, be careful. one size lower might be enough.</t>
-  </si>
-  <si>
-    <t>The media could not be loaded.                                                                                           Next review after one year</t>
-  </si>
-  <si>
-    <t>Value for money</t>
-  </si>
-  <si>
-    <t>Very comfortable to wear and very soft inside. Good item</t>
-  </si>
-  <si>
-    <t>The media could not be loaded.                                                                                           I hv used this shoes only for 15 days,soul got completely got detached and ,soul base rubber matrix got completely broken.I need my money back,this product has spoiled the amazon name.</t>
-  </si>
-  <si>
-    <t>Overall shoe is great value of money but got wrinkled from upper side when i wingled my toes in shoes which i do very often. Ordered 8 size but got 1 inch bigger.</t>
-  </si>
-  <si>
-    <t>Go for bigger size</t>
-  </si>
-  <si>
-    <t>Good and comfortable.</t>
-  </si>
-  <si>
-    <t>I used this shoes nearly for more than 2 years. Quality is good, comfortable</t>
-  </si>
-  <si>
-    <t>Quality product...thanks amazone</t>
-  </si>
-  <si>
-    <t>I like the look of shoes but the leather quality is not to the standard.</t>
-  </si>
-  <si>
-    <t>Selected this for one for short time use especially in monsoon so that the other good pair will get at least one year extended life,  good, comfortable  one for the pricing.</t>
-  </si>
-  <si>
-    <t>The media could not be loaded.                                                                                                        Shoe is okay, sole doesn't look to be durable.</t>
-  </si>
-  <si>
-    <t>I like this product</t>
-  </si>
-  <si>
-    <t>Fitting is good, soft and comfortable.But quality wise can be improved much more. Right side shoe is good, left side shoe is full of wrinkles.</t>
-  </si>
-  <si>
-    <t>Looking good, it's been a year wearing it and it's not leather</t>
-  </si>
-  <si>
-    <t>Dislike</t>
-  </si>
-  <si>
-    <t>This is made up of soft leather and not sure of genuine leather. It exactly fits into my foot size 9. Upper leather cushioning is as defined by the seller and the sole is airmix not pu but comfortable to wear. This I am reviewing after 10 days of regular use. So far looks durable and no issues. Though grabbed it @ 810 on GIS, should be priced around Rs.700.</t>
-  </si>
-  <si>
-    <t>Shoe is ok.comfartable.but when we look from top shoe base is larger than top leather</t>
-  </si>
-  <si>
-    <t>Simple, but comfurtable with in the reach of common man</t>
-  </si>
-  <si>
-    <t>Best at this price</t>
-  </si>
-  <si>
-    <t>Over all good but more better in market in this price</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
+  <si>
+    <t>DYNAMIC ISLAND COMES TO IPHONE 15 — Dynamic Island bubbles up alerts and Live Activities — so you don’t miss them while you’re doing something else. You can see who’s calling, track your next ride, check your flight status, and so much more.</t>
+  </si>
+  <si>
+    <t>INNOVATIVE DESIGN — iPhone 15 features a durable color-infused glass and aluminum design. It’s splash, water, and dust resistant. The Ceramic Shield front is tougher than any smartphone glass. And the 6.1" Super Retina XDR display is up to 2x brighter in the sun compared to iPhone 14.</t>
+  </si>
+  <si>
+    <t>48MP MAIN CAMERA WITH 2X TELEPHOTO — The 48MP Main camera shoots in super-high resolution. So it’s easier than ever to take standout photos with amazing detail. The 2x optical-quality Telephoto lets you frame the perfect close-up.</t>
+  </si>
+  <si>
+    <t>NEXT-GENERATION PORTRAITS — Capture portraits with dramatically more detail and color. Just tap to shift the focus between subjects — even after you take the shot.</t>
+  </si>
+  <si>
+    <t>POWERHOUSE A16 BIONIC CHIP — The superfast chip powers advanced features like computational photography, fluid Dynamic Island transitions, and Voice Isolation for phone calls. And A16 Bionic is incredibly efficient to help deliver great all-day battery life.</t>
+  </si>
+  <si>
+    <t>Everyone know about pros , let's only talk about consBattery : worst than I expect . Many says it is iOS 17 behind poor battery life . Hardly 3-4 he if you travelling and your network changes frequently .. worst than my android devices .Performance : no doubt in performance , it's the best in the industry ,Camera : undoubtably very good in camera dipartment but I hardly take photos 😁iOS : verry smooth and many good things are missing . Call recording , call pick up haptic , smart dial and many more little but verry important feature ..Many youtuber says there is no such use of dynamic island but listen to me it is verry usefull and looking cool tooPrice : obviously it's not value for money but it's far better than 13 and 14 launch price which is same . Although this time iPhone 15 far better than 15 pro</t>
+  </si>
+  <si>
+    <t>Just made the transition and here’s my POV on the first ~1 month of usePros- Battery Life is awesome- Screen fluidity is smooooooth! Understandable as I’m transitioning into an OLED from LCD in XR- Screen brightness is good as compared to XR- Dynamic Island is fun, yet to use it to the fullest- Weight, this phone is soo bloody light!!- Camera is awesome, love the 48MP intervention, the portrait mode and cinematic mode does the job for me- The Apple eco system, I enjoy seamless integration of my Watch, Mac, IPad Air and IPhone- Apples approach on Security!- Transferring data from my XR to 15 using the built in app is flawlessCons- The phone was over heating until I updated it to 17.0.3, now it’s back to normalcyIndustry memes- USB C : honestly don’t give a jack for the reviews out there on this. It’s just a mode of charging for me and that’s it. I’m not going to be transferring any data so yea, 2.0 speed yadadada - thank you so much- 60hz refresh rate for a 80k phone : save your jokes people, there are many of us who appreciate quality and security than how the screen refreshes. For non gamers like me, panel that is here is apt. I’ve seen a ton of folks buying 120hz phones and using it only to make calls, watch some videos and for textingTips of managing battery health- Switch off background app refresh for apps you don’t need back ground refresh- Avoid wireless charging as this heats your devise up- I charge my phone only using a power bank  not direct wired or wireless charging- Don’t let the battery go below 20%, keep it always between 95% and 20%- Switch off location services and allow only certain app that needs your location service- Switch on Charging Optimisation under the battery section- I don’t use vibrate mode for rings/incoming calls etc- My XR after 5 years of use has 86% battery health so I guess I know what I’m recommending above….. watch out for this space. Will keep updating more in KT experience</t>
+  </si>
+  <si>
+    <t>Good</t>
+  </si>
+  <si>
+    <t>Going well</t>
+  </si>
+  <si>
+    <t>Heating issue still persists even after updating it to 17.0.3, rest of things are meeting my expectations.</t>
+  </si>
+  <si>
+    <t>DesignOne of the most noticeable changes to the iPhone 15 is its new design. The phone now has rounded edges, which makes it feel more comfortable in the hand. It also has a new camera bump that is less pronounced than the one on the iPhone 14. DisplayThe iPhone 15 has the same 6.1-inch Super Retina XDR display as the iPhone 14. However, the new display is brighter and has better contrast. It also supports HDR10 and Dolby Vision.PerformanceThe iPhone 15 is powered by the new A16 Bionic chip, which is the fastest mobile chip on the market. The A16 Bionic chip is up to 20% faster than the A15 Bionic chip in the iPhone 14.CameraThe iPhone 15 has a new 48-megapixel main camera. The new camera sensor is larger than the one in the iPhone 14, and it has better low-light performance. The iPhone 15 also has a new 12-megapixel ultrawide camera and a new 12-megapixel telephoto camera.Battery lifeThe iPhone 15 has the same battery life as the iPhone 14. This means that you can expect to get around a day of use on a single charge.  Overall  The iPhone 15 is a solid upgrade over the iPhone 14.ProsNew design with rounded edgesMore powerful A16 Bionic chip found in 14 proNew 48-megapixel main cameraBrighter display with upto 2000 nits brightnessUSB C can be used for anythingDynamic IslandCons No 120hz display No Macro photography</t>
+  </si>
+  <si>
+    <t>Performance is great. Battery is too good and no heating issues except while charging which is common. Very light weight than previous iPhones and sound quality is superb</t>
+  </si>
+  <si>
+    <t>Very Best baseline iPhone ever. even if you have a iphone 14 it is still a upgrade. the new frosted glass and rounded edges make it premium feel. camera is just awesome. better than 14 pro camera. battery is just like iphone 14. type c is also a welcome with braided  data cabel. just blue colour looks a lot like white.</t>
+  </si>
+  <si>
+    <t>Nice cameraBattery backup goodLove i phone 15</t>
+  </si>
+  <si>
+    <t>When I preordered to Amazon I will not sure about how my product get to me in what condition but Amazon did great work and if you have a budget of 80k then you should go for iPhone I will recommend you to purchase it without a blink because You will not get this type of iPhone specification in other iPhone but tbh I will say 60hz hurts to me because in this price you will get 144hz type display but iPhone is lit and the camera quality this time in non pro model is excellent compare to the past year I phone and the chipset A16 bionic is 💥💥 and I am not a gamer but I will say because I will play 2 or 3 games of BGMI in this phone and fps gyroscope handling and battery consumption is excellent and game not render in hot spot place also so if you think buy iPhone go for this</t>
+  </si>
+  <si>
+    <t>what a product IPhone 15😍🥰</t>
+  </si>
+  <si>
+    <t>some lagging issue, some issues for used to large phone user</t>
+  </si>
+  <si>
+    <t>Very good and faster delivery</t>
+  </si>
+  <si>
+    <t>Good quality n performance ?Feels very premium 👍</t>
+  </si>
+  <si>
+    <t>Fabulous product, but there is no offer... Still unhappy.</t>
+  </si>
+  <si>
+    <t>I like this productAwesome phoneLight weightHand grip so smooth13 and 14 se bhut aacha hai</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Looks cool and nice</t>
+  </si>
+  <si>
+    <t>The model is so cool in Appearance &amp; ease to use Incase if your used to the Apple ecosystem.Dynamic island, Camera &amp; Charging efficiency is incredible feature to note!!</t>
+  </si>
+  <si>
+    <t>I’m happy for buying iPhone 15…</t>
+  </si>
+  <si>
+    <t>iPhone lene wale review nai dekha karte bs le lete hai</t>
+  </si>
+  <si>
+    <t>I have upgraded my iPhone from 7plus to iPhone 15. The changes are massive. The 60hz refresh rate is quite smooth and you get a clean software experience. The phone has no heating issue. Only thing is the upgrade sizes are pretty huge. Hence, the 256 GB variant is suggested.</t>
+  </si>
+  <si>
+    <t>Delivery was little bit late apart from everything was okay from mobile side</t>
+  </si>
+  <si>
+    <t>I like iphon 15</t>
+  </si>
+  <si>
+    <t>Loved all thingsDisplay Amazing 10/10Performance 10/10Battery 9/10Everything was best and osmCharging is quite speed mine takes 80% charge in 40-50minBattery backup easily 7+ hoursBest base iPhone till date</t>
+  </si>
+  <si>
+    <t>Very Nice Phone</t>
   </si>
 </sst>
 </file>
@@ -504,7 +480,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A40"/>
+  <dimension ref="A1:A35"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -624,87 +600,62 @@
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
